--- a/resumo_resultados_novo.xlsx
+++ b/resumo_resultados_novo.xlsx
@@ -9,12 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Inaiacy" sheetId="1" r:id="rId1"/>
     <sheet name="Bruna" sheetId="2" r:id="rId2"/>
     <sheet name="Andrea" sheetId="3" r:id="rId3"/>
+    <sheet name="Filipe" sheetId="4" r:id="rId4"/>
+    <sheet name="Karen" sheetId="5" r:id="rId5"/>
+    <sheet name="Luiza" sheetId="6" r:id="rId6"/>
+    <sheet name="PRoberto" sheetId="7" r:id="rId7"/>
+    <sheet name="Rafael" sheetId="8" r:id="rId8"/>
+    <sheet name="Santiago" sheetId="9" r:id="rId9"/>
+    <sheet name="Geraldo" sheetId="10" r:id="rId10"/>
+    <sheet name="Fernanda" sheetId="11" r:id="rId11"/>
+    <sheet name="Delcy" sheetId="12" r:id="rId12"/>
+    <sheet name="Plan10" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
   <si>
     <t>sensibilidade</t>
   </si>
@@ -731,6 +741,54 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
@@ -1026,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,5 +1365,1338 @@
     <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.4</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="F2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H2">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K2">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="H3">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="I3">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="J3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.79347826086956519</v>
+      </c>
+      <c r="D4">
+        <v>0.84946236559139787</v>
+      </c>
+      <c r="E4">
+        <v>0.82417582417582413</v>
+      </c>
+      <c r="F4">
+        <v>0.85869565217391308</v>
+      </c>
+      <c r="G4">
+        <v>0.87368421052631584</v>
+      </c>
+      <c r="H4">
+        <v>0.83157894736842108</v>
+      </c>
+      <c r="I4">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="J4">
+        <v>0.86170212765957444</v>
+      </c>
+      <c r="K4">
+        <v>0.84782608695652173</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.9375</v>
+      </c>
+      <c r="D5">
+        <v>0.875</v>
+      </c>
+      <c r="E5">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.9375</v>
+      </c>
+      <c r="G5">
+        <v>0.89873417721518989</v>
+      </c>
+      <c r="H5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.88607594936708856</v>
+      </c>
+      <c r="K5">
+        <v>0.88311688311688308</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.24</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F6">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="G6">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="H6">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I6">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="J6">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="K6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.75</v>
+      </c>
+      <c r="D7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E7">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F7">
+        <v>0.75</v>
+      </c>
+      <c r="G7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H7">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J7">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="K7">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.82786885245901642</v>
+      </c>
+      <c r="D8">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="E8">
+        <v>0.78688524590163933</v>
+      </c>
+      <c r="F8">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="G8">
+        <v>0.72950819672131151</v>
+      </c>
+      <c r="H8">
+        <v>0.70491803278688525</v>
+      </c>
+      <c r="I8">
+        <v>0.77868852459016391</v>
+      </c>
+      <c r="J8">
+        <v>0.77049180327868849</v>
+      </c>
+      <c r="K8">
+        <v>0.79508196721311475</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.375</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D3">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="E3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F3">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H3">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="I3">
+        <v>0.75</v>
+      </c>
+      <c r="J3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K3">
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.93258426966292129</v>
+      </c>
+      <c r="D4">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E4">
+        <v>0.9213483146067416</v>
+      </c>
+      <c r="F4">
+        <v>0.98947368421052628</v>
+      </c>
+      <c r="G4">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="H4">
+        <v>0.98901098901098905</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.98901098901098905</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D5">
+        <v>0.91752577319587625</v>
+      </c>
+      <c r="E5">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="F5">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H5">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="I5">
+        <v>0.93258426966292129</v>
+      </c>
+      <c r="J5">
+        <v>0.9213483146067416</v>
+      </c>
+      <c r="K5">
+        <v>0.93684210526315792</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="F6">
+        <v>0.9375</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.9375</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.9375</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.65</v>
+      </c>
+      <c r="D7">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="E7">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="F7">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="G7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H7">
+        <v>0.6875</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="K7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.85245901639344257</v>
+      </c>
+      <c r="D8">
+        <v>0.79508196721311475</v>
+      </c>
+      <c r="E8">
+        <v>0.94262295081967218</v>
+      </c>
+      <c r="F8">
+        <v>0.89344262295081966</v>
+      </c>
+      <c r="G8">
+        <v>0.76229508196721307</v>
+      </c>
+      <c r="H8">
+        <v>0.94262295081967218</v>
+      </c>
+      <c r="I8">
+        <v>0.88524590163934425</v>
+      </c>
+      <c r="J8">
+        <v>0.94262295081967218</v>
+      </c>
+      <c r="K8">
+        <v>0.86065573770491799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E2">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="F2">
+        <v>0.8</v>
+      </c>
+      <c r="G2">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H2">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="I2">
+        <v>0.8</v>
+      </c>
+      <c r="J2">
+        <v>0.8</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D3">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="E3">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F3">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G3">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="H3">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="D4">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="E4">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.9438202247191011</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.98901098901098905</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.93258426966292129</v>
+      </c>
+      <c r="D5">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E5">
+        <v>0.96739130434782605</v>
+      </c>
+      <c r="F5">
+        <v>0.9213483146067416</v>
+      </c>
+      <c r="G5">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="H5">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="I5">
+        <v>0.9213483146067416</v>
+      </c>
+      <c r="J5">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="K5">
+        <v>0.91954022988505746</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E6">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="D7">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E7">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="F7">
+        <v>0.65</v>
+      </c>
+      <c r="G7">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="H7">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="I7">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="J7">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="K7">
+        <v>0.68181818181818177</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.95901639344262291</v>
+      </c>
+      <c r="D8">
+        <v>0.92622950819672134</v>
+      </c>
+      <c r="E8">
+        <v>0.95901639344262291</v>
+      </c>
+      <c r="F8">
+        <v>0.95901639344262291</v>
+      </c>
+      <c r="G8">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="H8">
+        <v>0.95081967213114749</v>
+      </c>
+      <c r="I8">
+        <v>0.97540983606557374</v>
+      </c>
+      <c r="J8">
+        <v>0.95901639344262291</v>
+      </c>
+      <c r="K8">
+        <v>0.87704918032786883</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="F2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="I2">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="J2">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="K2">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.3</v>
+      </c>
+      <c r="J3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.87012987012987009</v>
+      </c>
+      <c r="D4">
+        <v>0.88095238095238093</v>
+      </c>
+      <c r="E4">
+        <v>0.82278481012658233</v>
+      </c>
+      <c r="F4">
+        <v>0.98765432098765427</v>
+      </c>
+      <c r="G4">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="H4">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="I4">
+        <v>0.9885057471264368</v>
+      </c>
+      <c r="J4">
+        <v>0.94186046511627908</v>
+      </c>
+      <c r="K4">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="D5">
+        <v>0.96202531645569622</v>
+      </c>
+      <c r="E5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.90789473684210531</v>
+      </c>
+      <c r="G5">
+        <v>0.96202531645569622</v>
+      </c>
+      <c r="H5">
+        <v>0.95</v>
+      </c>
+      <c r="I5">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="J5">
+        <v>0.89873417721518989</v>
+      </c>
+      <c r="K5">
+        <v>0.93670886075949367</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D6">
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="E6">
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="F6">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G6">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J6">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="K6">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.8125</v>
+      </c>
+      <c r="D7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E7">
+        <v>0.8125</v>
+      </c>
+      <c r="F7">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="I7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J7">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K7">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.89622641509433965</v>
+      </c>
+      <c r="D8">
+        <v>0.93396226415094341</v>
+      </c>
+      <c r="E8">
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="F8">
+        <v>0.94339622641509435</v>
+      </c>
+      <c r="G8">
+        <v>0.87735849056603776</v>
+      </c>
+      <c r="H8">
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="I8">
+        <v>0.85849056603773588</v>
+      </c>
+      <c r="J8">
+        <v>0.85849056603773588</v>
+      </c>
+      <c r="K8">
+        <v>0.92452830188679247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.375</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.4</v>
+      </c>
+      <c r="J2">
+        <v>0.75</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="F3">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.6</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.98684210526315785</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.96</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.89333333333333331</v>
+      </c>
+      <c r="D5">
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="G5">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.97368421052631582</v>
+      </c>
+      <c r="J5">
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="K5">
+        <v>0.94594594594594594</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.75</v>
+      </c>
+      <c r="J7">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="K7">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.82653061224489799</v>
+      </c>
+      <c r="D8">
+        <v>0.88775510204081631</v>
+      </c>
+      <c r="E8">
+        <v>0.82653061224489799</v>
+      </c>
+      <c r="F8">
+        <v>0.93877551020408168</v>
+      </c>
+      <c r="G8">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H8">
+        <v>0.81632653061224492</v>
+      </c>
+      <c r="I8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J8">
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="K8">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D2">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="I2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="D3">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F3">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G3">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H3">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="I3">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="J3">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="K3">
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.8764044943820225</v>
+      </c>
+      <c r="D4">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="E4">
+        <v>0.8539325842696629</v>
+      </c>
+      <c r="F4">
+        <v>0.9887640449438202</v>
+      </c>
+      <c r="G4">
+        <v>0.93258426966292129</v>
+      </c>
+      <c r="H4">
+        <v>0.8764044943820225</v>
+      </c>
+      <c r="I4">
+        <v>0.9887640449438202</v>
+      </c>
+      <c r="J4">
+        <v>0.9887640449438202</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.89130434782608692</v>
+      </c>
+      <c r="D5">
+        <v>0.956989247311828</v>
+      </c>
+      <c r="E5">
+        <v>0.88043478260869568</v>
+      </c>
+      <c r="F5">
+        <v>0.88172043010752688</v>
+      </c>
+      <c r="G5">
+        <v>0.91397849462365588</v>
+      </c>
+      <c r="H5">
+        <v>0.89130434782608692</v>
+      </c>
+      <c r="I5">
+        <v>0.88172043010752688</v>
+      </c>
+      <c r="J5">
+        <v>0.87096774193548387</v>
+      </c>
+      <c r="K5">
+        <v>0.87096774193548387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.3125</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="F6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="H7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="K7">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.88524590163934425</v>
+      </c>
+      <c r="D8">
+        <v>0.74590163934426235</v>
+      </c>
+      <c r="E8">
+        <v>0.92622950819672134</v>
+      </c>
+      <c r="F8">
+        <v>0.88524590163934425</v>
+      </c>
+      <c r="G8">
+        <v>0.84426229508196726</v>
+      </c>
+      <c r="H8">
+        <v>0.90163934426229508</v>
+      </c>
+      <c r="I8">
+        <v>0.88524590163934425</v>
+      </c>
+      <c r="J8">
+        <v>0.88524590163934425</v>
+      </c>
+      <c r="K8">
+        <v>0.86885245901639341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>